--- a/ig/sd-correction-slicing-condition/ValueSet-eclaire-regulation-code-vs.xlsx
+++ b/ig/sd-correction-slicing-condition/ValueSet-eclaire-regulation-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T10:12:56+00:00</t>
+    <t>2023-10-19T14:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-slicing-condition/ValueSet-eclaire-regulation-code-vs.xlsx
+++ b/ig/sd-correction-slicing-condition/ValueSet-eclaire-regulation-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T14:17:53+00:00</t>
+    <t>2023-10-19T15:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
